--- a/natmiOut/OldD2/LR-pairs_lrc2p/Spp1-Cd44.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Spp1-Cd44.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.65940096425221</v>
+        <v>6.0587955</v>
       </c>
       <c r="H2">
-        <v>3.65940096425221</v>
+        <v>12.117591</v>
       </c>
       <c r="I2">
-        <v>0.001217580206043308</v>
+        <v>0.00132156215963526</v>
       </c>
       <c r="J2">
-        <v>0.001217580206043308</v>
+        <v>0.0008896335791751394</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.1765442733921</v>
+        <v>19.5719925</v>
       </c>
       <c r="N2">
-        <v>19.1765442733921</v>
+        <v>39.143985</v>
       </c>
       <c r="O2">
-        <v>0.0323431139307629</v>
+        <v>0.03094210933382397</v>
       </c>
       <c r="P2">
-        <v>0.0323431139307629</v>
+        <v>0.02187190777676379</v>
       </c>
       <c r="Q2">
-        <v>70.17466460507625</v>
+        <v>118.5827000850337</v>
       </c>
       <c r="R2">
-        <v>70.17466460507625</v>
+        <v>474.330800340135</v>
       </c>
       <c r="S2">
-        <v>3.938033532390047E-05</v>
+        <v>4.089192083487876E-05</v>
       </c>
       <c r="T2">
-        <v>3.938033532390047E-05</v>
+        <v>1.945798359883093E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.65940096425221</v>
+        <v>6.0587955</v>
       </c>
       <c r="H3">
-        <v>3.65940096425221</v>
+        <v>12.117591</v>
       </c>
       <c r="I3">
-        <v>0.001217580206043308</v>
+        <v>0.00132156215963526</v>
       </c>
       <c r="J3">
-        <v>0.001217580206043308</v>
+        <v>0.0008896335791751394</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>108.332707554478</v>
+        <v>115.495743</v>
       </c>
       <c r="N3">
-        <v>108.332707554478</v>
+        <v>346.487229</v>
       </c>
       <c r="O3">
-        <v>0.1827136867263477</v>
+        <v>0.1825916246134488</v>
       </c>
       <c r="P3">
-        <v>0.1827136867263477</v>
+        <v>0.1936015640337701</v>
       </c>
       <c r="Q3">
-        <v>396.4328144849095</v>
+        <v>699.7650879575565</v>
       </c>
       <c r="R3">
-        <v>396.4328144849095</v>
+        <v>4198.590527745338</v>
       </c>
       <c r="S3">
-        <v>0.0002224685683311988</v>
+        <v>0.0002413061817554601</v>
       </c>
       <c r="T3">
-        <v>0.0002224685683311988</v>
+        <v>0.0001722344523452678</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.65940096425221</v>
+        <v>6.0587955</v>
       </c>
       <c r="H4">
-        <v>3.65940096425221</v>
+        <v>12.117591</v>
       </c>
       <c r="I4">
-        <v>0.001217580206043308</v>
+        <v>0.00132156215963526</v>
       </c>
       <c r="J4">
-        <v>0.001217580206043308</v>
+        <v>0.0008896335791751394</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>218.541511299469</v>
+        <v>239.8982746666667</v>
       </c>
       <c r="N4">
-        <v>218.541511299469</v>
+        <v>719.694824</v>
       </c>
       <c r="O4">
-        <v>0.3685915928224504</v>
+        <v>0.3792643310961689</v>
       </c>
       <c r="P4">
-        <v>0.3685915928224504</v>
+        <v>0.4021332732970914</v>
       </c>
       <c r="Q4">
-        <v>799.731017178412</v>
+        <v>1453.494587008164</v>
       </c>
       <c r="R4">
-        <v>799.731017178412</v>
+        <v>8720.967522048984</v>
       </c>
       <c r="S4">
-        <v>0.0004487898275345902</v>
+        <v>0.0005012213884760754</v>
       </c>
       <c r="T4">
-        <v>0.0004487898275345902</v>
+        <v>0.0003577512632287059</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.65940096425221</v>
+        <v>6.0587955</v>
       </c>
       <c r="H5">
-        <v>3.65940096425221</v>
+        <v>12.117591</v>
       </c>
       <c r="I5">
-        <v>0.001217580206043308</v>
+        <v>0.00132156215963526</v>
       </c>
       <c r="J5">
-        <v>0.001217580206043308</v>
+        <v>0.0008896335791751394</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>149.589712980949</v>
+        <v>151.102183</v>
       </c>
       <c r="N5">
-        <v>149.589712980949</v>
+        <v>453.306549</v>
       </c>
       <c r="O5">
-        <v>0.2522976538857455</v>
+        <v>0.2388832034840335</v>
       </c>
       <c r="P5">
-        <v>0.2522976538857455</v>
+        <v>0.2532874216646837</v>
       </c>
       <c r="Q5">
-        <v>547.4087399246961</v>
+        <v>915.4972264005764</v>
       </c>
       <c r="R5">
-        <v>547.4087399246961</v>
+        <v>5492.983358403458</v>
       </c>
       <c r="S5">
-        <v>0.0003071926294024492</v>
+        <v>0.0003156990022969487</v>
       </c>
       <c r="T5">
-        <v>0.0003071926294024492</v>
+        <v>0.0002253329954955953</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.65940096425221</v>
+        <v>6.0587955</v>
       </c>
       <c r="H6">
-        <v>3.65940096425221</v>
+        <v>12.117591</v>
       </c>
       <c r="I6">
-        <v>0.001217580206043308</v>
+        <v>0.00132156215963526</v>
       </c>
       <c r="J6">
-        <v>0.001217580206043308</v>
+        <v>0.0008896335791751394</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.7880703945014</v>
+        <v>18.12446233333333</v>
       </c>
       <c r="N6">
-        <v>16.7880703945014</v>
+        <v>54.373387</v>
       </c>
       <c r="O6">
-        <v>0.02831471957126403</v>
+        <v>0.02865365369084289</v>
       </c>
       <c r="P6">
-        <v>0.02831471957126403</v>
+        <v>0.03038141635232813</v>
       </c>
       <c r="Q6">
-        <v>61.4342809895724</v>
+        <v>109.8124108251195</v>
       </c>
       <c r="R6">
-        <v>61.4342809895724</v>
+        <v>658.874464950717</v>
       </c>
       <c r="S6">
-        <v>3.447544208963814E-05</v>
+        <v>3.786758445311117E-05</v>
       </c>
       <c r="T6">
-        <v>3.447544208963814E-05</v>
+        <v>2.702832816993178E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.65940096425221</v>
+        <v>6.0587955</v>
       </c>
       <c r="H7">
-        <v>3.65940096425221</v>
+        <v>12.117591</v>
       </c>
       <c r="I7">
-        <v>0.001217580206043308</v>
+        <v>0.00132156215963526</v>
       </c>
       <c r="J7">
-        <v>0.001217580206043308</v>
+        <v>0.0008896335791751394</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>80.4811008009132</v>
+        <v>88.3431645</v>
       </c>
       <c r="N7">
-        <v>80.4811008009132</v>
+        <v>176.686329</v>
       </c>
       <c r="O7">
-        <v>0.1357392330634297</v>
+        <v>0.139665077781682</v>
       </c>
       <c r="P7">
-        <v>0.1357392330634297</v>
+        <v>0.09872441687536272</v>
       </c>
       <c r="Q7">
-        <v>294.512617874941</v>
+        <v>535.2531675283598</v>
       </c>
       <c r="R7">
-        <v>294.512617874941</v>
+        <v>2141.012670113439</v>
       </c>
       <c r="S7">
-        <v>0.0001652734033615313</v>
+        <v>0.0001845760818187862</v>
       </c>
       <c r="T7">
-        <v>0.0001652734033615313</v>
+        <v>8.782855633680747E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.190745986862</v>
+        <v>31.77968466666667</v>
       </c>
       <c r="H8">
-        <v>28.190745986862</v>
+        <v>95.339054</v>
       </c>
       <c r="I8">
-        <v>0.009379812336091498</v>
+        <v>0.006931877582038802</v>
       </c>
       <c r="J8">
-        <v>0.009379812336091498</v>
+        <v>0.006999479009086203</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.1765442733921</v>
+        <v>19.5719925</v>
       </c>
       <c r="N8">
-        <v>19.1765442733921</v>
+        <v>39.143985</v>
       </c>
       <c r="O8">
-        <v>0.0323431139307629</v>
+        <v>0.03094210933382397</v>
       </c>
       <c r="P8">
-        <v>0.0323431139307629</v>
+        <v>0.02187190777676379</v>
       </c>
       <c r="Q8">
-        <v>540.6010885170099</v>
+        <v>621.9917499483651</v>
       </c>
       <c r="R8">
-        <v>540.6010885170099</v>
+        <v>3731.95049969019</v>
       </c>
       <c r="S8">
-        <v>0.0003033723390353826</v>
+        <v>0.000214486914032128</v>
       </c>
       <c r="T8">
-        <v>0.0003033723390353826</v>
+        <v>0.0001530919593721274</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>28.190745986862</v>
+        <v>31.77968466666667</v>
       </c>
       <c r="H9">
-        <v>28.190745986862</v>
+        <v>95.339054</v>
       </c>
       <c r="I9">
-        <v>0.009379812336091498</v>
+        <v>0.006931877582038802</v>
       </c>
       <c r="J9">
-        <v>0.009379812336091498</v>
+        <v>0.006999479009086203</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>108.332707554478</v>
+        <v>115.495743</v>
       </c>
       <c r="N9">
-        <v>108.332707554478</v>
+        <v>346.487229</v>
       </c>
       <c r="O9">
-        <v>0.1827136867263477</v>
+        <v>0.1825916246134488</v>
       </c>
       <c r="P9">
-        <v>0.1827136867263477</v>
+        <v>0.1936015640337701</v>
       </c>
       <c r="Q9">
-        <v>3053.979840737295</v>
+        <v>3670.418292882374</v>
       </c>
       <c r="R9">
-        <v>3053.979840737295</v>
+        <v>33033.76463594137</v>
       </c>
       <c r="S9">
-        <v>0.001713820092728553</v>
+        <v>0.00126570278932601</v>
       </c>
       <c r="T9">
-        <v>0.001713820092728553</v>
+        <v>0.001355110083580632</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.190745986862</v>
+        <v>31.77968466666667</v>
       </c>
       <c r="H10">
-        <v>28.190745986862</v>
+        <v>95.339054</v>
       </c>
       <c r="I10">
-        <v>0.009379812336091498</v>
+        <v>0.006931877582038802</v>
       </c>
       <c r="J10">
-        <v>0.009379812336091498</v>
+        <v>0.006999479009086203</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>218.541511299469</v>
+        <v>239.8982746666667</v>
       </c>
       <c r="N10">
-        <v>218.541511299469</v>
+        <v>719.694824</v>
       </c>
       <c r="O10">
-        <v>0.3685915928224504</v>
+        <v>0.3792643310961689</v>
       </c>
       <c r="P10">
-        <v>0.3685915928224504</v>
+        <v>0.4021332732970914</v>
       </c>
       <c r="Q10">
-        <v>6160.848232628262</v>
+        <v>7623.891520984056</v>
       </c>
       <c r="R10">
-        <v>6160.848232628262</v>
+        <v>68615.0236888565</v>
       </c>
       <c r="S10">
-        <v>0.003457319969335634</v>
+        <v>0.002629013914392475</v>
       </c>
       <c r="T10">
-        <v>0.003457319969335634</v>
+        <v>0.002814723405298117</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>28.190745986862</v>
+        <v>31.77968466666667</v>
       </c>
       <c r="H11">
-        <v>28.190745986862</v>
+        <v>95.339054</v>
       </c>
       <c r="I11">
-        <v>0.009379812336091498</v>
+        <v>0.006931877582038802</v>
       </c>
       <c r="J11">
-        <v>0.009379812336091498</v>
+        <v>0.006999479009086203</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>149.589712980949</v>
+        <v>151.102183</v>
       </c>
       <c r="N11">
-        <v>149.589712980949</v>
+        <v>453.306549</v>
       </c>
       <c r="O11">
-        <v>0.2522976538857455</v>
+        <v>0.2388832034840335</v>
       </c>
       <c r="P11">
-        <v>0.2522976538857455</v>
+        <v>0.2532874216646837</v>
       </c>
       <c r="Q11">
-        <v>4217.045600893527</v>
+        <v>4801.979728184961</v>
       </c>
       <c r="R11">
-        <v>4217.045600893527</v>
+        <v>43217.81755366464</v>
       </c>
       <c r="S11">
-        <v>0.002366504646284458</v>
+        <v>0.001655909122956585</v>
       </c>
       <c r="T11">
-        <v>0.002366504646284458</v>
+        <v>0.00177287999120752</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>28.190745986862</v>
+        <v>31.77968466666667</v>
       </c>
       <c r="H12">
-        <v>28.190745986862</v>
+        <v>95.339054</v>
       </c>
       <c r="I12">
-        <v>0.009379812336091498</v>
+        <v>0.006931877582038802</v>
       </c>
       <c r="J12">
-        <v>0.009379812336091498</v>
+        <v>0.006999479009086203</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.7880703945014</v>
+        <v>18.12446233333333</v>
       </c>
       <c r="N12">
-        <v>16.7880703945014</v>
+        <v>54.373387</v>
       </c>
       <c r="O12">
-        <v>0.02831471957126403</v>
+        <v>0.02865365369084289</v>
       </c>
       <c r="P12">
-        <v>0.02831471957126403</v>
+        <v>0.03038141635232813</v>
       </c>
       <c r="Q12">
-        <v>473.2682281009471</v>
+        <v>575.9896977062109</v>
       </c>
       <c r="R12">
-        <v>473.2682281009471</v>
+        <v>5183.907279355898</v>
       </c>
       <c r="S12">
-        <v>0.0002655867559275137</v>
+        <v>0.0001986236196630572</v>
       </c>
       <c r="T12">
-        <v>0.0002655867559275137</v>
+        <v>0.0002126540860244291</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>28.190745986862</v>
+        <v>31.77968466666667</v>
       </c>
       <c r="H13">
-        <v>28.190745986862</v>
+        <v>95.339054</v>
       </c>
       <c r="I13">
-        <v>0.009379812336091498</v>
+        <v>0.006931877582038802</v>
       </c>
       <c r="J13">
-        <v>0.009379812336091498</v>
+        <v>0.006999479009086203</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>80.4811008009132</v>
+        <v>88.3431645</v>
       </c>
       <c r="N13">
-        <v>80.4811008009132</v>
+        <v>176.686329</v>
       </c>
       <c r="O13">
-        <v>0.1357392330634297</v>
+        <v>0.139665077781682</v>
       </c>
       <c r="P13">
-        <v>0.1357392330634297</v>
+        <v>0.09872441687536272</v>
       </c>
       <c r="Q13">
-        <v>2268.82226942158</v>
+        <v>2807.517910265461</v>
       </c>
       <c r="R13">
-        <v>2268.82226942158</v>
+        <v>16845.10746159277</v>
       </c>
       <c r="S13">
-        <v>0.001273208532779957</v>
+        <v>0.0009681412216685469</v>
       </c>
       <c r="T13">
-        <v>0.001273208532779957</v>
+        <v>0.0006910194836033771</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2110.07010425502</v>
+        <v>3354.457804666667</v>
       </c>
       <c r="H14">
-        <v>2110.07010425502</v>
+        <v>10063.373414</v>
       </c>
       <c r="I14">
-        <v>0.7020765467906734</v>
+        <v>0.7316841277677443</v>
       </c>
       <c r="J14">
-        <v>0.7020765467906734</v>
+        <v>0.7388196968252817</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>19.1765442733921</v>
+        <v>19.5719925</v>
       </c>
       <c r="N14">
-        <v>19.1765442733921</v>
+        <v>39.143985</v>
       </c>
       <c r="O14">
-        <v>0.0323431139307629</v>
+        <v>0.03094210933382397</v>
       </c>
       <c r="P14">
-        <v>0.0323431139307629</v>
+        <v>0.02187190777676379</v>
       </c>
       <c r="Q14">
-        <v>40463.85277420747</v>
+        <v>65653.42299450247</v>
       </c>
       <c r="R14">
-        <v>40463.85277420747</v>
+        <v>393920.5379670148</v>
       </c>
       <c r="S14">
-        <v>0.02270734174096734</v>
+        <v>0.02263985027921317</v>
       </c>
       <c r="T14">
-        <v>0.02270734174096734</v>
+        <v>0.01615939627261914</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2110.07010425502</v>
+        <v>3354.457804666667</v>
       </c>
       <c r="H15">
-        <v>2110.07010425502</v>
+        <v>10063.373414</v>
       </c>
       <c r="I15">
-        <v>0.7020765467906734</v>
+        <v>0.7316841277677443</v>
       </c>
       <c r="J15">
-        <v>0.7020765467906734</v>
+        <v>0.7388196968252817</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>108.332707554478</v>
+        <v>115.495743</v>
       </c>
       <c r="N15">
-        <v>108.332707554478</v>
+        <v>346.487229</v>
       </c>
       <c r="O15">
-        <v>0.1827136867263477</v>
+        <v>0.1825916246134488</v>
       </c>
       <c r="P15">
-        <v>0.1827136867263477</v>
+        <v>0.1936015640337701</v>
       </c>
       <c r="Q15">
-        <v>228589.607523706</v>
+        <v>387425.5965121255</v>
       </c>
       <c r="R15">
-        <v>228589.607523706</v>
+        <v>3486830.36860913</v>
       </c>
       <c r="S15">
-        <v>0.1282789942282271</v>
+        <v>0.1335993935929866</v>
       </c>
       <c r="T15">
-        <v>0.1282789942282271</v>
+        <v>0.1430366488443304</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2110.07010425502</v>
+        <v>3354.457804666667</v>
       </c>
       <c r="H16">
-        <v>2110.07010425502</v>
+        <v>10063.373414</v>
       </c>
       <c r="I16">
-        <v>0.7020765467906734</v>
+        <v>0.7316841277677443</v>
       </c>
       <c r="J16">
-        <v>0.7020765467906734</v>
+        <v>0.7388196968252817</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>218.541511299469</v>
+        <v>239.8982746666667</v>
       </c>
       <c r="N16">
-        <v>218.541511299469</v>
+        <v>719.694824</v>
       </c>
       <c r="O16">
-        <v>0.3685915928224504</v>
+        <v>0.3792643310961689</v>
       </c>
       <c r="P16">
-        <v>0.3685915928224504</v>
+        <v>0.4021332732970914</v>
       </c>
       <c r="Q16">
-        <v>461137.9095317202</v>
+        <v>804728.6397816677</v>
       </c>
       <c r="R16">
-        <v>461137.9095317202</v>
+        <v>7242557.75803501</v>
       </c>
       <c r="S16">
-        <v>0.2587795126648599</v>
+        <v>0.2775016912915173</v>
       </c>
       <c r="T16">
-        <v>0.2587795126648599</v>
+        <v>0.2971039830607152</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2110.07010425502</v>
+        <v>3354.457804666667</v>
       </c>
       <c r="H17">
-        <v>2110.07010425502</v>
+        <v>10063.373414</v>
       </c>
       <c r="I17">
-        <v>0.7020765467906734</v>
+        <v>0.7316841277677443</v>
       </c>
       <c r="J17">
-        <v>0.7020765467906734</v>
+        <v>0.7388196968252817</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>149.589712980949</v>
+        <v>151.102183</v>
       </c>
       <c r="N17">
-        <v>149.589712980949</v>
+        <v>453.306549</v>
       </c>
       <c r="O17">
-        <v>0.2522976538857455</v>
+        <v>0.2388832034840335</v>
       </c>
       <c r="P17">
-        <v>0.2522976538857455</v>
+        <v>0.2532874216646837</v>
       </c>
       <c r="Q17">
-        <v>315644.7812651896</v>
+        <v>506865.8970665209</v>
       </c>
       <c r="R17">
-        <v>315644.7812651896</v>
+        <v>4561793.073598688</v>
       </c>
       <c r="S17">
-        <v>0.1771322656034927</v>
+        <v>0.1747870483795796</v>
       </c>
       <c r="T17">
-        <v>0.1771322656034927</v>
+        <v>0.1871337360839589</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2110.07010425502</v>
+        <v>3354.457804666667</v>
       </c>
       <c r="H18">
-        <v>2110.07010425502</v>
+        <v>10063.373414</v>
       </c>
       <c r="I18">
-        <v>0.7020765467906734</v>
+        <v>0.7316841277677443</v>
       </c>
       <c r="J18">
-        <v>0.7020765467906734</v>
+        <v>0.7388196968252817</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>16.7880703945014</v>
+        <v>18.12446233333333</v>
       </c>
       <c r="N18">
-        <v>16.7880703945014</v>
+        <v>54.373387</v>
       </c>
       <c r="O18">
-        <v>0.02831471957126403</v>
+        <v>0.02865365369084289</v>
       </c>
       <c r="P18">
-        <v>0.02831471957126403</v>
+        <v>0.03038141635232813</v>
       </c>
       <c r="Q18">
-        <v>35424.00544756618</v>
+        <v>60797.74412943702</v>
       </c>
       <c r="R18">
-        <v>35424.00544756618</v>
+        <v>547179.6971649332</v>
       </c>
       <c r="S18">
-        <v>0.01987910053993935</v>
+        <v>0.02096542360814338</v>
       </c>
       <c r="T18">
-        <v>0.01987910053993935</v>
+        <v>0.02244638881854973</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2110.07010425502</v>
+        <v>3354.457804666667</v>
       </c>
       <c r="H19">
-        <v>2110.07010425502</v>
+        <v>10063.373414</v>
       </c>
       <c r="I19">
-        <v>0.7020765467906734</v>
+        <v>0.7316841277677443</v>
       </c>
       <c r="J19">
-        <v>0.7020765467906734</v>
+        <v>0.7388196968252817</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>80.4811008009132</v>
+        <v>88.3431645</v>
       </c>
       <c r="N19">
-        <v>80.4811008009132</v>
+        <v>176.686329</v>
       </c>
       <c r="O19">
-        <v>0.1357392330634297</v>
+        <v>0.139665077781682</v>
       </c>
       <c r="P19">
-        <v>0.1357392330634297</v>
+        <v>0.09872441687536272</v>
       </c>
       <c r="Q19">
-        <v>169820.7647575417</v>
+        <v>296343.4176459762</v>
       </c>
       <c r="R19">
-        <v>169820.7647575417</v>
+        <v>1778060.505875857</v>
       </c>
       <c r="S19">
-        <v>0.09529933201318712</v>
+        <v>0.1021907206163041</v>
       </c>
       <c r="T19">
-        <v>0.09529933201318712</v>
+        <v>0.07293954374510821</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>769.5240429458891</v>
+        <v>1056.205729</v>
       </c>
       <c r="H20">
-        <v>769.5240429458891</v>
+        <v>3168.617187</v>
       </c>
       <c r="I20">
-        <v>0.2560411531609246</v>
+        <v>0.2303826765957647</v>
       </c>
       <c r="J20">
-        <v>0.2560411531609246</v>
+        <v>0.2326294268478505</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>19.1765442733921</v>
+        <v>19.5719925</v>
       </c>
       <c r="N20">
-        <v>19.1765442733921</v>
+        <v>39.143985</v>
       </c>
       <c r="O20">
-        <v>0.0323431139307629</v>
+        <v>0.03094210933382397</v>
       </c>
       <c r="P20">
-        <v>0.0323431139307629</v>
+        <v>0.02187190777676379</v>
       </c>
       <c r="Q20">
-        <v>14756.81187899152</v>
+        <v>20672.05060644503</v>
       </c>
       <c r="R20">
-        <v>14756.81187899152</v>
+        <v>124032.3036386702</v>
       </c>
       <c r="S20">
-        <v>0.008281168187647696</v>
+        <v>0.007128525967845161</v>
       </c>
       <c r="T20">
-        <v>0.008281168187647696</v>
+        <v>0.005088049370177605</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>769.5240429458891</v>
+        <v>1056.205729</v>
       </c>
       <c r="H21">
-        <v>769.5240429458891</v>
+        <v>3168.617187</v>
       </c>
       <c r="I21">
-        <v>0.2560411531609246</v>
+        <v>0.2303826765957647</v>
       </c>
       <c r="J21">
-        <v>0.2560411531609246</v>
+        <v>0.2326294268478505</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>108.332707554478</v>
+        <v>115.495743</v>
       </c>
       <c r="N21">
-        <v>108.332707554478</v>
+        <v>346.487229</v>
       </c>
       <c r="O21">
-        <v>0.1827136867263477</v>
+        <v>0.1825916246134488</v>
       </c>
       <c r="P21">
-        <v>0.1827136867263477</v>
+        <v>0.1936015640337701</v>
       </c>
       <c r="Q21">
-        <v>83364.62310059657</v>
+        <v>121987.2654317117</v>
       </c>
       <c r="R21">
-        <v>83364.62310059657</v>
+        <v>1097885.388885405</v>
       </c>
       <c r="S21">
-        <v>0.04678222304769798</v>
+        <v>0.04206594720241544</v>
       </c>
       <c r="T21">
-        <v>0.04678222304769798</v>
+        <v>0.04503742087802337</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>769.5240429458891</v>
+        <v>1056.205729</v>
       </c>
       <c r="H22">
-        <v>769.5240429458891</v>
+        <v>3168.617187</v>
       </c>
       <c r="I22">
-        <v>0.2560411531609246</v>
+        <v>0.2303826765957647</v>
       </c>
       <c r="J22">
-        <v>0.2560411531609246</v>
+        <v>0.2326294268478505</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>218.541511299469</v>
+        <v>239.8982746666667</v>
       </c>
       <c r="N22">
-        <v>218.541511299469</v>
+        <v>719.694824</v>
       </c>
       <c r="O22">
-        <v>0.3685915928224504</v>
+        <v>0.3792643310961689</v>
       </c>
       <c r="P22">
-        <v>0.3685915928224504</v>
+        <v>0.4021332732970914</v>
       </c>
       <c r="Q22">
-        <v>168172.9473266721</v>
+        <v>253381.9320801489</v>
       </c>
       <c r="R22">
-        <v>168172.9473266721</v>
+        <v>2280437.38872134</v>
       </c>
       <c r="S22">
-        <v>0.09437461647168216</v>
+        <v>0.08737593173523771</v>
       </c>
       <c r="T22">
-        <v>0.09437461647168216</v>
+        <v>0.09354803288355241</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>769.5240429458891</v>
+        <v>1056.205729</v>
       </c>
       <c r="H23">
-        <v>769.5240429458891</v>
+        <v>3168.617187</v>
       </c>
       <c r="I23">
-        <v>0.2560411531609246</v>
+        <v>0.2303826765957647</v>
       </c>
       <c r="J23">
-        <v>0.2560411531609246</v>
+        <v>0.2326294268478505</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>149.589712980949</v>
+        <v>151.102183</v>
       </c>
       <c r="N23">
-        <v>149.589712980949</v>
+        <v>453.306549</v>
       </c>
       <c r="O23">
-        <v>0.2522976538857455</v>
+        <v>0.2388832034840335</v>
       </c>
       <c r="P23">
-        <v>0.2522976538857455</v>
+        <v>0.2532874216646837</v>
       </c>
       <c r="Q23">
-        <v>115112.880716215</v>
+        <v>159594.9913490064</v>
       </c>
       <c r="R23">
-        <v>115112.880716215</v>
+        <v>1436354.922141057</v>
       </c>
       <c r="S23">
-        <v>0.0645985822407021</v>
+        <v>0.05503455181242235</v>
       </c>
       <c r="T23">
-        <v>0.0645985822407021</v>
+        <v>0.05892210772962522</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>769.5240429458891</v>
+        <v>1056.205729</v>
       </c>
       <c r="H24">
-        <v>769.5240429458891</v>
+        <v>3168.617187</v>
       </c>
       <c r="I24">
-        <v>0.2560411531609246</v>
+        <v>0.2303826765957647</v>
       </c>
       <c r="J24">
-        <v>0.2560411531609246</v>
+        <v>0.2326294268478505</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>16.7880703945014</v>
+        <v>18.12446233333333</v>
       </c>
       <c r="N24">
-        <v>16.7880703945014</v>
+        <v>54.373387</v>
       </c>
       <c r="O24">
-        <v>0.02831471957126403</v>
+        <v>0.02865365369084289</v>
       </c>
       <c r="P24">
-        <v>0.02831471957126403</v>
+        <v>0.03038141635232813</v>
       </c>
       <c r="Q24">
-        <v>12918.8238032369</v>
+        <v>19143.16095151137</v>
       </c>
       <c r="R24">
-        <v>12918.8238032369</v>
+        <v>172288.4485636024</v>
       </c>
       <c r="S24">
-        <v>0.007249733450454642</v>
+        <v>0.006601305431544497</v>
       </c>
       <c r="T24">
-        <v>0.007249733450454642</v>
+        <v>0.007067611472868007</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>769.5240429458891</v>
+        <v>1056.205729</v>
       </c>
       <c r="H25">
-        <v>769.5240429458891</v>
+        <v>3168.617187</v>
       </c>
       <c r="I25">
-        <v>0.2560411531609246</v>
+        <v>0.2303826765957647</v>
       </c>
       <c r="J25">
-        <v>0.2560411531609246</v>
+        <v>0.2326294268478505</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>80.4811008009132</v>
+        <v>88.3431645</v>
       </c>
       <c r="N25">
-        <v>80.4811008009132</v>
+        <v>176.686329</v>
       </c>
       <c r="O25">
-        <v>0.1357392330634297</v>
+        <v>0.139665077781682</v>
       </c>
       <c r="P25">
-        <v>0.1357392330634297</v>
+        <v>0.09872441687536272</v>
       </c>
       <c r="Q25">
-        <v>61932.14206905435</v>
+        <v>93308.55646288942</v>
       </c>
       <c r="R25">
-        <v>61932.14206905435</v>
+        <v>559851.3387773365</v>
       </c>
       <c r="S25">
-        <v>0.03475482976274004</v>
+        <v>0.03217641444629956</v>
       </c>
       <c r="T25">
-        <v>0.03475482976274004</v>
+        <v>0.02296620451360389</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>8.058651479175509</v>
+        <v>9.293481999999999</v>
       </c>
       <c r="H26">
-        <v>8.058651479175509</v>
+        <v>27.880446</v>
       </c>
       <c r="I26">
-        <v>0.002681328070986831</v>
+        <v>0.002027121420825545</v>
       </c>
       <c r="J26">
-        <v>0.002681328070986831</v>
+        <v>0.002046890422690384</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>19.1765442733921</v>
+        <v>19.5719925</v>
       </c>
       <c r="N26">
-        <v>19.1765442733921</v>
+        <v>39.143985</v>
       </c>
       <c r="O26">
-        <v>0.0323431139307629</v>
+        <v>0.03094210933382397</v>
       </c>
       <c r="P26">
-        <v>0.0323431139307629</v>
+        <v>0.02187190777676379</v>
       </c>
       <c r="Q26">
-        <v>154.5370868742459</v>
+        <v>181.891960002885</v>
       </c>
       <c r="R26">
-        <v>154.5370868742459</v>
+        <v>1091.35176001731</v>
       </c>
       <c r="S26">
-        <v>8.672249928567978E-05</v>
+        <v>6.27234126361206E-05</v>
       </c>
       <c r="T26">
-        <v>8.672249928567978E-05</v>
+        <v>4.476939855422514E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>8.058651479175509</v>
+        <v>9.293481999999999</v>
       </c>
       <c r="H27">
-        <v>8.058651479175509</v>
+        <v>27.880446</v>
       </c>
       <c r="I27">
-        <v>0.002681328070986831</v>
+        <v>0.002027121420825545</v>
       </c>
       <c r="J27">
-        <v>0.002681328070986831</v>
+        <v>0.002046890422690384</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>108.332707554478</v>
+        <v>115.495743</v>
       </c>
       <c r="N27">
-        <v>108.332707554478</v>
+        <v>346.487229</v>
       </c>
       <c r="O27">
-        <v>0.1827136867263477</v>
+        <v>0.1825916246134488</v>
       </c>
       <c r="P27">
-        <v>0.1827136867263477</v>
+        <v>0.1936015640337701</v>
       </c>
       <c r="Q27">
-        <v>873.0155339769821</v>
+        <v>1073.357608647126</v>
       </c>
       <c r="R27">
-        <v>873.0155339769821</v>
+        <v>9660.218477824134</v>
       </c>
       <c r="S27">
-        <v>0.0004899153371728499</v>
+        <v>0.0003701353935172588</v>
       </c>
       <c r="T27">
-        <v>0.0004899153371728499</v>
+        <v>0.0003962811872386032</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>8.058651479175509</v>
+        <v>9.293481999999999</v>
       </c>
       <c r="H28">
-        <v>8.058651479175509</v>
+        <v>27.880446</v>
       </c>
       <c r="I28">
-        <v>0.002681328070986831</v>
+        <v>0.002027121420825545</v>
       </c>
       <c r="J28">
-        <v>0.002681328070986831</v>
+        <v>0.002046890422690384</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>218.541511299469</v>
+        <v>239.8982746666667</v>
       </c>
       <c r="N28">
-        <v>218.541511299469</v>
+        <v>719.694824</v>
       </c>
       <c r="O28">
-        <v>0.3685915928224504</v>
+        <v>0.3792643310961689</v>
       </c>
       <c r="P28">
-        <v>0.3685915928224504</v>
+        <v>0.4021332732970914</v>
       </c>
       <c r="Q28">
-        <v>1761.149873294717</v>
+        <v>2229.490297445723</v>
       </c>
       <c r="R28">
-        <v>1761.149873294717</v>
+        <v>20065.4126770115</v>
       </c>
       <c r="S28">
-        <v>0.0009883149845645843</v>
+        <v>0.0007688148497201157</v>
       </c>
       <c r="T28">
-        <v>0.0009883149845645843</v>
+        <v>0.0008231227457569513</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>8.058651479175509</v>
+        <v>9.293481999999999</v>
       </c>
       <c r="H29">
-        <v>8.058651479175509</v>
+        <v>27.880446</v>
       </c>
       <c r="I29">
-        <v>0.002681328070986831</v>
+        <v>0.002027121420825545</v>
       </c>
       <c r="J29">
-        <v>0.002681328070986831</v>
+        <v>0.002046890422690384</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>149.589712980949</v>
+        <v>151.102183</v>
       </c>
       <c r="N29">
-        <v>149.589712980949</v>
+        <v>453.306549</v>
       </c>
       <c r="O29">
-        <v>0.2522976538857455</v>
+        <v>0.2388832034840335</v>
       </c>
       <c r="P29">
-        <v>0.2522976538857455</v>
+        <v>0.2532874216646837</v>
       </c>
       <c r="Q29">
-        <v>1205.491361783364</v>
+        <v>1404.265417871206</v>
       </c>
       <c r="R29">
-        <v>1205.491361783364</v>
+        <v>12638.38876084085</v>
       </c>
       <c r="S29">
-        <v>0.000676492781607969</v>
+        <v>0.0004842452588579117</v>
       </c>
       <c r="T29">
-        <v>0.000676492781607969</v>
+        <v>0.0005184515975933821</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>8.058651479175509</v>
+        <v>9.293481999999999</v>
       </c>
       <c r="H30">
-        <v>8.058651479175509</v>
+        <v>27.880446</v>
       </c>
       <c r="I30">
-        <v>0.002681328070986831</v>
+        <v>0.002027121420825545</v>
       </c>
       <c r="J30">
-        <v>0.002681328070986831</v>
+        <v>0.002046890422690384</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>16.7880703945014</v>
+        <v>18.12446233333333</v>
       </c>
       <c r="N30">
-        <v>16.7880703945014</v>
+        <v>54.373387</v>
       </c>
       <c r="O30">
-        <v>0.02831471957126403</v>
+        <v>0.02865365369084289</v>
       </c>
       <c r="P30">
-        <v>0.02831471957126403</v>
+        <v>0.03038141635232813</v>
       </c>
       <c r="Q30">
-        <v>135.2892083171513</v>
+        <v>168.4393644545113</v>
       </c>
       <c r="R30">
-        <v>135.2892083171513</v>
+        <v>1515.954280090602</v>
       </c>
       <c r="S30">
-        <v>7.592105240855043E-05</v>
+        <v>5.808443518162455E-05</v>
       </c>
       <c r="T30">
-        <v>7.592105240855043E-05</v>
+        <v>6.218743015934949E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>8.058651479175509</v>
+        <v>9.293481999999999</v>
       </c>
       <c r="H31">
-        <v>8.058651479175509</v>
+        <v>27.880446</v>
       </c>
       <c r="I31">
-        <v>0.002681328070986831</v>
+        <v>0.002027121420825545</v>
       </c>
       <c r="J31">
-        <v>0.002681328070986831</v>
+        <v>0.002046890422690384</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>80.4811008009132</v>
+        <v>88.3431645</v>
       </c>
       <c r="N31">
-        <v>80.4811008009132</v>
+        <v>176.686329</v>
       </c>
       <c r="O31">
-        <v>0.1357392330634297</v>
+        <v>0.139665077781682</v>
       </c>
       <c r="P31">
-        <v>0.1357392330634297</v>
+        <v>0.09872441687536272</v>
       </c>
       <c r="Q31">
-        <v>648.5691420149524</v>
+        <v>821.015609103789</v>
       </c>
       <c r="R31">
-        <v>648.5691420149524</v>
+        <v>4926.093654622734</v>
       </c>
       <c r="S31">
-        <v>0.0003639614159471978</v>
+        <v>0.0002831180709125134</v>
       </c>
       <c r="T31">
-        <v>0.0003639614159471978</v>
+        <v>0.0002020780633878729</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>85.9672041702086</v>
+        <v>126.775465</v>
       </c>
       <c r="H32">
-        <v>85.9672041702086</v>
+        <v>253.55093</v>
       </c>
       <c r="I32">
-        <v>0.02860357943528039</v>
+        <v>0.02765263447399147</v>
       </c>
       <c r="J32">
-        <v>0.02860357943528039</v>
+        <v>0.01861487331591611</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>19.1765442733921</v>
+        <v>19.5719925</v>
       </c>
       <c r="N32">
-        <v>19.1765442733921</v>
+        <v>39.143985</v>
       </c>
       <c r="O32">
-        <v>0.0323431139307629</v>
+        <v>0.03094210933382397</v>
       </c>
       <c r="P32">
-        <v>0.0323431139307629</v>
+        <v>0.02187190777676379</v>
       </c>
       <c r="Q32">
-        <v>1648.553896829743</v>
+        <v>2481.248450164012</v>
       </c>
       <c r="R32">
-        <v>1648.553896829743</v>
+        <v>9924.99380065605</v>
       </c>
       <c r="S32">
-        <v>0.0009251288285029003</v>
+        <v>0.0008556308392625139</v>
       </c>
       <c r="T32">
-        <v>0.0009251288285029003</v>
+        <v>0.0004071427924418584</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>85.9672041702086</v>
+        <v>126.775465</v>
       </c>
       <c r="H33">
-        <v>85.9672041702086</v>
+        <v>253.55093</v>
       </c>
       <c r="I33">
-        <v>0.02860357943528039</v>
+        <v>0.02765263447399147</v>
       </c>
       <c r="J33">
-        <v>0.02860357943528039</v>
+        <v>0.01861487331591611</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>108.332707554478</v>
+        <v>115.495743</v>
       </c>
       <c r="N33">
-        <v>108.332707554478</v>
+        <v>346.487229</v>
       </c>
       <c r="O33">
-        <v>0.1827136867263477</v>
+        <v>0.1825916246134488</v>
       </c>
       <c r="P33">
-        <v>0.1827136867263477</v>
+        <v>0.1936015640337701</v>
       </c>
       <c r="Q33">
-        <v>9313.05998864731</v>
+        <v>14642.0265243455</v>
       </c>
       <c r="R33">
-        <v>9313.05998864731</v>
+        <v>87852.15914607297</v>
       </c>
       <c r="S33">
-        <v>0.005226265452190021</v>
+        <v>0.005049139453447963</v>
       </c>
       <c r="T33">
-        <v>0.005226265452190021</v>
+        <v>0.003603868588251852</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>85.9672041702086</v>
+        <v>126.775465</v>
       </c>
       <c r="H34">
-        <v>85.9672041702086</v>
+        <v>253.55093</v>
       </c>
       <c r="I34">
-        <v>0.02860357943528039</v>
+        <v>0.02765263447399147</v>
       </c>
       <c r="J34">
-        <v>0.02860357943528039</v>
+        <v>0.01861487331591611</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>218.541511299469</v>
+        <v>239.8982746666667</v>
       </c>
       <c r="N34">
-        <v>218.541511299469</v>
+        <v>719.694824</v>
       </c>
       <c r="O34">
-        <v>0.3685915928224504</v>
+        <v>0.3792643310961689</v>
       </c>
       <c r="P34">
-        <v>0.3685915928224504</v>
+        <v>0.4021332732970914</v>
       </c>
       <c r="Q34">
-        <v>18787.4027215474</v>
+        <v>30413.21532356439</v>
       </c>
       <c r="R34">
-        <v>18787.4027215474</v>
+        <v>182479.2919413863</v>
       </c>
       <c r="S34">
-        <v>0.01054303890447348</v>
+        <v>0.01048765791682523</v>
       </c>
       <c r="T34">
-        <v>0.01054303890447348</v>
+        <v>0.007485659938540029</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>85.9672041702086</v>
+        <v>126.775465</v>
       </c>
       <c r="H35">
-        <v>85.9672041702086</v>
+        <v>253.55093</v>
       </c>
       <c r="I35">
-        <v>0.02860357943528039</v>
+        <v>0.02765263447399147</v>
       </c>
       <c r="J35">
-        <v>0.02860357943528039</v>
+        <v>0.01861487331591611</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>149.589712980949</v>
+        <v>151.102183</v>
       </c>
       <c r="N35">
-        <v>149.589712980949</v>
+        <v>453.306549</v>
       </c>
       <c r="O35">
-        <v>0.2522976538857455</v>
+        <v>0.2388832034840335</v>
       </c>
       <c r="P35">
-        <v>0.2522976538857455</v>
+        <v>0.2532874216646837</v>
       </c>
       <c r="Q35">
-        <v>12859.80939759615</v>
+        <v>19156.04951234009</v>
       </c>
       <c r="R35">
-        <v>12859.80939759615</v>
+        <v>114936.2970740406</v>
       </c>
       <c r="S35">
-        <v>0.007216615984255799</v>
+        <v>0.006605749907920103</v>
       </c>
       <c r="T35">
-        <v>0.007216615984255799</v>
+        <v>0.004714913266803114</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>85.9672041702086</v>
+        <v>126.775465</v>
       </c>
       <c r="H36">
-        <v>85.9672041702086</v>
+        <v>253.55093</v>
       </c>
       <c r="I36">
-        <v>0.02860357943528039</v>
+        <v>0.02765263447399147</v>
       </c>
       <c r="J36">
-        <v>0.02860357943528039</v>
+        <v>0.01861487331591611</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>16.7880703945014</v>
+        <v>18.12446233333333</v>
       </c>
       <c r="N36">
-        <v>16.7880703945014</v>
+        <v>54.373387</v>
       </c>
       <c r="O36">
-        <v>0.02831471957126403</v>
+        <v>0.02865365369084289</v>
       </c>
       <c r="P36">
-        <v>0.02831471957126403</v>
+        <v>0.03038141635232813</v>
       </c>
       <c r="Q36">
-        <v>1443.223475227936</v>
+        <v>2297.737140183318</v>
       </c>
       <c r="R36">
-        <v>1443.223475227936</v>
+        <v>13786.42284109991</v>
       </c>
       <c r="S36">
-        <v>0.0008099023304443389</v>
+        <v>0.0007923490118572149</v>
       </c>
       <c r="T36">
-        <v>0.0008099023304443389</v>
+        <v>0.0005655462165566903</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>85.9672041702086</v>
+        <v>126.775465</v>
       </c>
       <c r="H37">
-        <v>85.9672041702086</v>
+        <v>253.55093</v>
       </c>
       <c r="I37">
-        <v>0.02860357943528039</v>
+        <v>0.02765263447399147</v>
       </c>
       <c r="J37">
-        <v>0.02860357943528039</v>
+        <v>0.01861487331591611</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>80.4811008009132</v>
+        <v>88.3431645</v>
       </c>
       <c r="N37">
-        <v>80.4811008009132</v>
+        <v>176.686329</v>
       </c>
       <c r="O37">
-        <v>0.1357392330634297</v>
+        <v>0.139665077781682</v>
       </c>
       <c r="P37">
-        <v>0.1357392330634297</v>
+        <v>0.09872441687536272</v>
       </c>
       <c r="Q37">
-        <v>6918.735224395244</v>
+        <v>11199.74575905899</v>
       </c>
       <c r="R37">
-        <v>6918.735224395244</v>
+        <v>44798.98303623597</v>
       </c>
       <c r="S37">
-        <v>0.003882627935413849</v>
+        <v>0.003862107344678438</v>
       </c>
       <c r="T37">
-        <v>0.003882627935413849</v>
+        <v>0.001837742513322568</v>
       </c>
     </row>
   </sheetData>
